--- a/Analytics/B1/TGMXcorners_b1.xlsx
+++ b/Analytics/B1/TGMXcorners_b1.xlsx
@@ -70,52 +70,52 @@
     <t>16</t>
   </si>
   <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>St Truiden</t>
+  </si>
+  <si>
+    <t>Dender</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
     <t>Gent</t>
   </si>
   <si>
-    <t>Mechelen</t>
-  </si>
-  <si>
-    <t>Westerlo</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>St. Gilloise</t>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
   <si>
     <t>Charleroi</t>
   </si>
   <si>
     <t>Kortrijk</t>
-  </si>
-  <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven</t>
-  </si>
-  <si>
-    <t>Eupen</t>
-  </si>
-  <si>
-    <t>St Truiden</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
-    <t>Standard</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>34028.0</v>
+        <v>16307.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>33856.0</v>
+        <v>14836.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>33013.0</v>
+        <v>12344.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>30467.0</v>
+        <v>11272.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>29353.0</v>
+        <v>9558.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>29057.0</v>
+        <v>9424.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>29051.0</v>
+        <v>9408.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>28895.0</v>
+        <v>8442.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>28504.0</v>
+        <v>8121.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>25827.0</v>
+        <v>7309.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>25735.0</v>
+        <v>7291.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>24695.0</v>
+        <v>6735.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>23548.0</v>
+        <v>6625.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>22579.0</v>
+        <v>6473.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>22536.0</v>
+        <v>4882.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>19808.0</v>
+        <v>4169.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>39777.0</v>
+        <v>11725.0</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>34302.0</v>
+        <v>11387.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>31663.0</v>
+        <v>9885.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>31633.0</v>
+        <v>9618.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>31621.0</v>
+        <v>9430.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>31572.0</v>
+        <v>9338.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>31096.0</v>
+        <v>9325.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>29505.0</v>
+        <v>9293.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>28761.0</v>
+        <v>9082.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>24893.0</v>
+        <v>9005.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>22278.0</v>
+        <v>8620.0</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>21850.0</v>
+        <v>8137.0</v>
       </c>
     </row>
     <row r="14">
@@ -519,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>21421.0</v>
+        <v>8074.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>20801.0</v>
+        <v>7701.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>20064.0</v>
+        <v>6822.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>19715.0</v>
+        <v>5754.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>65124.0</v>
+        <v>26561.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2170.8</v>
+        <v>885.3666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -602,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>64676.0</v>
+        <v>25645.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2155.866666666667</v>
+        <v>854.8333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>63361.0</v>
+        <v>21637.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2112.0333333333333</v>
+        <v>721.2333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -630,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>62313.0</v>
+        <v>20702.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2077.1</v>
+        <v>690.0666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>62039.0</v>
+        <v>19309.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2067.9666666666667</v>
+        <v>643.6333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>60684.0</v>
+        <v>17632.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2022.8</v>
+        <v>587.7333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -672,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>55169.0</v>
+        <v>17126.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1838.9666666666667</v>
+        <v>570.8666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>54588.0</v>
+        <v>17109.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1819.6</v>
+        <v>570.3</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>54110.0</v>
+        <v>16616.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1803.6666666666667</v>
+        <v>553.8666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>51203.0</v>
+        <v>16579.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1706.7666666666667</v>
+        <v>552.6333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>50478.0</v>
+        <v>16243.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1682.6</v>
+        <v>541.4333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>48610.0</v>
+        <v>15817.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1620.3333333333333</v>
+        <v>527.2333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>48568.0</v>
+        <v>15556.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1618.9333333333334</v>
+        <v>518.5333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>47472.0</v>
+        <v>14131.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1582.4</v>
+        <v>471.03333333333336</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>46973.0</v>
+        <v>13502.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1565.7666666666667</v>
+        <v>450.06666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>46536.0</v>
+        <v>12227.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1551.2</v>
+        <v>407.56666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/B1/TGMXcorners_b1.xlsx
+++ b/Analytics/B1/TGMXcorners_b1.xlsx
@@ -76,46 +76,46 @@
     <t>Westerlo</t>
   </si>
   <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
     <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
+    <t>Beerschot VA</t>
   </si>
   <si>
     <t>St Truiden</t>
   </si>
   <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
     <t>Dender</t>
   </si>
   <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
     <t>Oud-Heverlee Leuven</t>
   </si>
   <si>
-    <t>St. Gilloise</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Gent</t>
-  </si>
-  <si>
-    <t>Beerschot VA</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
     <t>Charleroi</t>
-  </si>
-  <si>
-    <t>Kortrijk</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>16307.0</v>
+        <v>22217.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>14836.0</v>
+        <v>20902.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>12344.0</v>
+        <v>16217.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>11272.0</v>
+        <v>15281.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>9558.0</v>
+        <v>14880.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>9424.0</v>
+        <v>14070.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>9408.0</v>
+        <v>13878.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>8442.0</v>
+        <v>13562.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>8121.0</v>
+        <v>12965.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>7309.0</v>
+        <v>11707.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>7291.0</v>
+        <v>10835.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>6735.0</v>
+        <v>10435.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>6625.0</v>
+        <v>9668.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>6473.0</v>
+        <v>7599.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>4882.0</v>
+        <v>7425.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>4169.0</v>
+        <v>6655.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>11725.0</v>
+        <v>17622.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>11387.0</v>
+        <v>17108.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>9885.0</v>
+        <v>16651.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>9618.0</v>
+        <v>14980.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>9430.0</v>
+        <v>14286.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>9338.0</v>
+        <v>13818.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>9325.0</v>
+        <v>13348.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>9293.0</v>
+        <v>13026.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>9082.0</v>
+        <v>12946.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>9005.0</v>
+        <v>12858.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>8620.0</v>
+        <v>12751.0</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>8137.0</v>
+        <v>10678.0</v>
       </c>
     </row>
     <row r="14">
@@ -519,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>8074.0</v>
+        <v>10566.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>7701.0</v>
+        <v>10276.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>6822.0</v>
+        <v>10109.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>5754.0</v>
+        <v>7273.0</v>
       </c>
     </row>
   </sheetData>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>26561.0</v>
+        <v>37553.0</v>
       </c>
       <c r="D2" t="n">
-        <v>885.3666666666667</v>
+        <v>1251.7666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -605,10 +605,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>25645.0</v>
+        <v>35163.0</v>
       </c>
       <c r="D3" t="n">
-        <v>854.8333333333334</v>
+        <v>1172.1</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>21637.0</v>
+        <v>31988.0</v>
       </c>
       <c r="D4" t="n">
-        <v>721.2333333333333</v>
+        <v>1066.2666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -633,10 +633,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>20702.0</v>
+        <v>30261.0</v>
       </c>
       <c r="D5" t="n">
-        <v>690.0666666666667</v>
+        <v>1008.7</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>19309.0</v>
+        <v>29075.0</v>
       </c>
       <c r="D6" t="n">
-        <v>643.6333333333333</v>
+        <v>969.1666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>17632.0</v>
+        <v>28164.0</v>
       </c>
       <c r="D7" t="n">
-        <v>587.7333333333333</v>
+        <v>938.8</v>
       </c>
     </row>
     <row r="8">
@@ -672,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>17126.0</v>
+        <v>27096.0</v>
       </c>
       <c r="D8" t="n">
-        <v>570.8666666666667</v>
+        <v>903.2</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>17109.0</v>
+        <v>26313.0</v>
       </c>
       <c r="D9" t="n">
-        <v>570.3</v>
+        <v>877.1</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>16616.0</v>
+        <v>25047.0</v>
       </c>
       <c r="D10" t="n">
-        <v>553.8666666666667</v>
+        <v>834.9</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>16579.0</v>
+        <v>23586.0</v>
       </c>
       <c r="D11" t="n">
-        <v>552.6333333333333</v>
+        <v>786.2</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>16243.0</v>
+        <v>22273.0</v>
       </c>
       <c r="D12" t="n">
-        <v>541.4333333333333</v>
+        <v>742.4333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>15817.0</v>
+        <v>21113.0</v>
       </c>
       <c r="D13" t="n">
-        <v>527.2333333333333</v>
+        <v>703.7666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>15556.0</v>
+        <v>20835.0</v>
       </c>
       <c r="D14" t="n">
-        <v>518.5333333333333</v>
+        <v>694.5</v>
       </c>
     </row>
     <row r="15">
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>14131.0</v>
+        <v>20473.0</v>
       </c>
       <c r="D15" t="n">
-        <v>471.03333333333336</v>
+        <v>682.4333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>13502.0</v>
+        <v>19944.0</v>
       </c>
       <c r="D16" t="n">
-        <v>450.06666666666666</v>
+        <v>664.8</v>
       </c>
     </row>
     <row r="17">
@@ -801,10 +801,10 @@
         <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>12227.0</v>
+        <v>17708.0</v>
       </c>
       <c r="D17" t="n">
-        <v>407.56666666666666</v>
+        <v>590.2666666666667</v>
       </c>
     </row>
   </sheetData>
